--- a/系统功能列表.xlsx
+++ b/系统功能列表.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16729"/>
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxiangyu\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Program Files\YuanQuan\YuanQuan\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="45">
   <si>
     <t>子系统</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -198,13 +198,17 @@
   </si>
   <si>
     <t>增加管理员账号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王静</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -273,10 +277,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -297,7 +301,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -372,6 +376,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -407,6 +428,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -562,7 +600,7 @@
   <dimension ref="A1:G46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -600,257 +638,263 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="2"/>
-      <c r="B3" s="3" t="s">
+      <c r="A3" s="3"/>
+      <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="2"/>
-      <c r="C4" s="3" t="s">
+      <c r="A4" s="3"/>
+      <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="2"/>
+      <c r="A5" s="3"/>
       <c r="D5" t="s">
         <v>13</v>
       </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="2"/>
+      <c r="A6" s="3"/>
       <c r="D6" t="s">
         <v>11</v>
       </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="2"/>
-      <c r="C7" s="3" t="s">
+      <c r="A7" s="3"/>
+      <c r="C7" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="2"/>
+      <c r="A8" s="3"/>
       <c r="D8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" s="2"/>
+      <c r="A9" s="3"/>
       <c r="D9" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A12" s="2"/>
-      <c r="B12" s="3" t="s">
+      <c r="A12" s="3"/>
+      <c r="B12" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" s="2"/>
-      <c r="C13" s="3" t="s">
+      <c r="A13" s="3"/>
+      <c r="C13" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A14" s="2"/>
+      <c r="A14" s="3"/>
       <c r="D14" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A15" s="2"/>
+      <c r="A15" s="3"/>
       <c r="D15" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A16" s="2"/>
-      <c r="C16" s="3" t="s">
+      <c r="A16" s="3"/>
+      <c r="C16" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="2"/>
+      <c r="A17" s="3"/>
       <c r="D17" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="2"/>
+      <c r="A18" s="3"/>
       <c r="D18" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A19" s="2"/>
-      <c r="B19" s="3" t="s">
+      <c r="A19" s="3"/>
+      <c r="B19" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A20" s="2"/>
-      <c r="C20" s="3" t="s">
+      <c r="A20" s="3"/>
+      <c r="C20" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A21" s="2"/>
+      <c r="A21" s="3"/>
       <c r="D21" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A22" s="2"/>
+      <c r="A22" s="3"/>
       <c r="D22" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A23" s="2"/>
+      <c r="A23" s="3"/>
       <c r="D23" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A24" s="2"/>
+      <c r="A24" s="3"/>
       <c r="D24" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A25" s="2"/>
-      <c r="C25" s="3" t="s">
+      <c r="A25" s="3"/>
+      <c r="C25" s="2" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A26" s="2"/>
+      <c r="A26" s="3"/>
       <c r="D26" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A27" s="2"/>
-      <c r="B27" s="3" t="s">
+      <c r="A27" s="3"/>
+      <c r="B27" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A28" s="2"/>
-      <c r="C28" s="3" t="s">
+      <c r="A28" s="3"/>
+      <c r="C28" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D28" s="3"/>
+      <c r="D28" s="2"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A29" s="2"/>
+      <c r="A29" s="3"/>
       <c r="D29" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A30" s="2"/>
+      <c r="A30" s="3"/>
       <c r="D30" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A31" s="2"/>
-      <c r="C31" s="3" t="s">
+      <c r="A31" s="3"/>
+      <c r="C31" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A32" s="2"/>
+      <c r="A32" s="3"/>
       <c r="D32" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A33" s="2"/>
+      <c r="A33" s="3"/>
       <c r="D33" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A35" s="2" t="s">
+      <c r="A35" s="3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A36" s="2"/>
-      <c r="B36" s="3" t="s">
+      <c r="A36" s="3"/>
+      <c r="B36" s="2" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A37" s="2"/>
-      <c r="C37" s="3" t="s">
+      <c r="A37" s="3"/>
+      <c r="C37" s="2" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A38" s="2"/>
+      <c r="A38" s="3"/>
       <c r="D38" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A39" s="2"/>
+      <c r="A39" s="3"/>
       <c r="D39" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A40" s="2"/>
+      <c r="A40" s="3"/>
       <c r="D40" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A41" s="2"/>
-      <c r="C41" s="3" t="s">
+      <c r="A41" s="3"/>
+      <c r="C41" s="2" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A42" s="2"/>
+      <c r="A42" s="3"/>
       <c r="D42" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A43" s="2"/>
+      <c r="A43" s="3"/>
       <c r="D43" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A44" s="2"/>
+      <c r="A44" s="3"/>
       <c r="D44" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A45" s="2"/>
-      <c r="C45" s="3" t="s">
+      <c r="A45" s="3"/>
+      <c r="C45" s="2" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A46" s="2"/>
+      <c r="A46" s="3"/>
       <c r="D46" t="s">
         <v>43</v>
       </c>

--- a/系统功能列表.xlsx
+++ b/系统功能列表.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxiangyu\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitRepo\YuanQuan\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="45">
   <si>
     <t>子系统</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -198,6 +198,10 @@
   </si>
   <si>
     <t>增加管理员账号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -205,6 +209,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -266,17 +273,23 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -562,7 +575,7 @@
   <dimension ref="A1:G46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -600,266 +613,272 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="2"/>
-      <c r="B3" s="3" t="s">
+      <c r="A3" s="4"/>
+      <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="2"/>
-      <c r="C4" s="3" t="s">
+      <c r="A4" s="4"/>
+      <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="2"/>
+      <c r="A5" s="4"/>
       <c r="D5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="2"/>
+      <c r="A6" s="4"/>
       <c r="D6" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="2"/>
-      <c r="C7" s="3" t="s">
+      <c r="A7" s="4"/>
+      <c r="C7" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="2"/>
+      <c r="A8" s="4"/>
       <c r="D8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" s="2"/>
+      <c r="A9" s="4"/>
       <c r="D9" t="s">
         <v>14</v>
       </c>
     </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A10" s="5"/>
+      <c r="C10" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A12" s="2"/>
-      <c r="B12" s="3" t="s">
+      <c r="A12" s="3"/>
+      <c r="B12" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" s="2"/>
-      <c r="C13" s="3" t="s">
+      <c r="A13" s="3"/>
+      <c r="C13" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A14" s="2"/>
+      <c r="A14" s="3"/>
       <c r="D14" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A15" s="2"/>
+      <c r="A15" s="3"/>
       <c r="D15" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A16" s="2"/>
-      <c r="C16" s="3" t="s">
+      <c r="A16" s="3"/>
+      <c r="C16" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="2"/>
+      <c r="A17" s="3"/>
       <c r="D17" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="2"/>
+      <c r="A18" s="3"/>
       <c r="D18" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A19" s="2"/>
-      <c r="B19" s="3" t="s">
+      <c r="A19" s="3"/>
+      <c r="B19" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A20" s="2"/>
-      <c r="C20" s="3" t="s">
+      <c r="A20" s="3"/>
+      <c r="C20" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A21" s="2"/>
+      <c r="A21" s="3"/>
       <c r="D21" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A22" s="2"/>
+      <c r="A22" s="3"/>
       <c r="D22" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A23" s="2"/>
+      <c r="A23" s="3"/>
       <c r="D23" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A24" s="2"/>
+      <c r="A24" s="3"/>
       <c r="D24" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A25" s="2"/>
-      <c r="C25" s="3" t="s">
+      <c r="A25" s="3"/>
+      <c r="C25" s="2" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A26" s="2"/>
+      <c r="A26" s="3"/>
       <c r="D26" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A27" s="2"/>
-      <c r="B27" s="3" t="s">
+      <c r="A27" s="3"/>
+      <c r="B27" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A28" s="2"/>
-      <c r="C28" s="3" t="s">
+      <c r="A28" s="3"/>
+      <c r="C28" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D28" s="3"/>
+      <c r="D28" s="2"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A29" s="2"/>
+      <c r="A29" s="3"/>
       <c r="D29" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A30" s="2"/>
+      <c r="A30" s="3"/>
       <c r="D30" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A31" s="2"/>
-      <c r="C31" s="3" t="s">
+      <c r="A31" s="3"/>
+      <c r="C31" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A32" s="2"/>
+      <c r="A32" s="3"/>
       <c r="D32" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A33" s="2"/>
+      <c r="A33" s="3"/>
       <c r="D33" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A35" s="2" t="s">
+      <c r="A35" s="3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A36" s="2"/>
-      <c r="B36" s="3" t="s">
+      <c r="A36" s="3"/>
+      <c r="B36" s="2" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A37" s="2"/>
-      <c r="C37" s="3" t="s">
+      <c r="A37" s="3"/>
+      <c r="C37" s="2" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A38" s="2"/>
+      <c r="A38" s="3"/>
       <c r="D38" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A39" s="2"/>
+      <c r="A39" s="3"/>
       <c r="D39" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A40" s="2"/>
+      <c r="A40" s="3"/>
       <c r="D40" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A41" s="2"/>
-      <c r="C41" s="3" t="s">
+      <c r="A41" s="3"/>
+      <c r="C41" s="2" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A42" s="2"/>
+      <c r="A42" s="3"/>
       <c r="D42" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A43" s="2"/>
+      <c r="A43" s="3"/>
       <c r="D43" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A44" s="2"/>
+      <c r="A44" s="3"/>
       <c r="D44" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A45" s="2"/>
-      <c r="C45" s="3" t="s">
+      <c r="A45" s="3"/>
+      <c r="C45" s="2" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A46" s="2"/>
+      <c r="A46" s="3"/>
       <c r="D46" t="s">
         <v>43</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A2:A9"/>
     <mergeCell ref="A11:A33"/>
     <mergeCell ref="A35:A46"/>
+    <mergeCell ref="A2:A10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
